--- a/code/notebooks/phase2results_new/dsmfeaturessorted.xlsx
+++ b/code/notebooks/phase2results_new/dsmfeaturessorted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,449 +453,449 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>madrs_4</t>
+          <t>panss_p3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.009213923892280203</v>
+        <v>0.02413731594124703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03232906600738308</v>
+        <v>0.09054682590314178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03238767477313952</v>
+        <v>0.02631205090864565</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>BACS_Tower_z_within_imputed</t>
+          <t>young_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02630065209186997</v>
+        <v>0.01539517729213041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009896041432562477</v>
+        <v>0.05710071903087241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02684117680362745</v>
+        <v>0.02491555743121608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>sfs_retotal</t>
+          <t>panss_g6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.022550450690885</v>
+        <v>0.02093400272701196</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01595866894905437</v>
+        <v>0.01078514740779827</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02432430395920157</v>
+        <v>0.02063421824567091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Anti_prop_error_within_Impute_Age_Sex_adjusted</t>
+          <t>panss_p1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01303683386710255</v>
+        <v>0.02149981585901819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03289305624277633</v>
+        <v>0.05262661443970673</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02097330412592016</v>
+        <v>0.02062596100576435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>panss_g2</t>
+          <t>sfs_oetotal</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01237647408769093</v>
+        <v>0.01208777502692125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01732897302688665</v>
+        <v>0.01500608825089032</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01978520768918822</v>
+        <v>0.01726480646246795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>panss_g7</t>
+          <t>sfs_setotal</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0286345292724948</v>
+        <v>0.01189996194386345</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008004513762576465</v>
+        <v>0.01025239167116492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01941170237268956</v>
+        <v>0.0168653206835728</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>panss_g13</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009175998164616825</v>
+        <v>0.03172961607515713</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01731115316289324</v>
+        <v>0.01486245535384967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01872716576596914</v>
+        <v>0.01618405553454172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Pro_NoGap_within_Impute_Age_Sex_adjusted</t>
+          <t>panss_p6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02255164411805416</v>
+        <v>0.01127941671357237</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01973772791716605</v>
+        <v>0.01283411984383773</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01778884391370437</v>
+        <v>0.01566871190672995</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>madrs_9</t>
+          <t>Anti_prop_error_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01384492385646151</v>
+        <v>0.01438773356726003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009492137118079298</v>
+        <v>0.01279939664909338</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01741285802558986</v>
+        <v>0.01493054604217183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>panss_p1</t>
+          <t>Pro_Gap_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01163657145502856</v>
+        <v>0.01149969291310349</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01881772059544636</v>
+        <v>0.009093338133362602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01695399075831392</v>
+        <v>0.01484141200006083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>panss_g1</t>
+          <t>madrs_6</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0162579602367374</v>
+        <v>0.01125995320875538</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01646786061686226</v>
+        <v>0.007821837674525297</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01670229211857092</v>
+        <v>0.01446173022738683</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ConsensusWRAT</t>
+          <t>BSNIP1vs2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01519497427925331</v>
+        <v>0.009203988605906419</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01068984745542513</v>
+        <v>0.008248968146177088</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01663309588604032</v>
+        <v>0.01442284428600591</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>panss_n4</t>
+          <t>BACS_Verb_Mem_within_imputed</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01974965407925418</v>
+        <v>0.01223158320138118</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008843643795408388</v>
+        <v>0.01356597308608226</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01648453286052487</v>
+        <v>0.01441762351703784</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>DX</t>
+          <t>Pro_Overlap_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01543431804364901</v>
+        <v>0.01124979168925335</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01334382977416651</v>
+        <v>0.008916761792208532</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01634092212362841</v>
+        <v>0.0143943102836701</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SSGoDiff_standwithin</t>
+          <t>madrs_3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02006049978296955</v>
+        <v>0.01395051348092937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01365741126352766</v>
+        <v>0.01011189282164585</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01633242617957612</v>
+        <v>0.01417066764684199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>SSTProportionError_standwithin</t>
+          <t>madrs_7</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01848713030706413</v>
+        <v>0.0156328035918478</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01086329870967858</v>
+        <v>0.01045951192240202</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01575193987796662</v>
+        <v>0.01414488435467509</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>panss_n6</t>
+          <t>panss_g9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01193092033122472</v>
+        <v>0.01363846278796373</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008366568942187937</v>
+        <v>0.02299711218989772</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01563949785580459</v>
+        <v>0.01409155946048914</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>panss_g9</t>
+          <t>panss_n1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01010753027663233</v>
+        <v>0.03025561455853886</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01108914288284785</v>
+        <v>0.02290434038224326</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01558438131262053</v>
+        <v>0.01405577323988842</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Anti_Error_Lat_within_Impute_Age_Sex_adjusted</t>
+          <t>sfs_prototal</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01493979806717789</v>
+        <v>0.01563648398719118</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01828053690304</v>
+        <v>0.01622215997487768</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01552977748640505</v>
+        <v>0.01389469154280524</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>madrs_7</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01127901367849128</v>
+        <v>0.01162388819491504</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009987644770731672</v>
+        <v>0.009709661823974139</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01527943504068384</v>
+        <v>0.01386364831304414</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BACS_Dig_Seq_z_within_imputed</t>
+          <t>sfs_ipcctotal</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01823485384562475</v>
+        <v>0.0107787638358222</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01291547635341091</v>
+        <v>0.008960922860321964</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01510779672204449</v>
+        <v>0.0138485464634907</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Pro_Overlap_within_Impute_Age_Sex_adjusted</t>
+          <t>panss_n5</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0139312021217785</v>
+        <v>0.01821455926031008</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01563503185721892</v>
+        <v>0.01894709649098261</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01508554455844227</v>
+        <v>0.01383927823382008</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BACS_Sym_Cod_z_within_imputed</t>
+          <t>Anti_Error_Lat_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02187281380612238</v>
+        <v>0.01153549299217477</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0156847033265812</v>
+        <v>0.009098765058877471</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01475890656065532</v>
+        <v>0.01372394738905087</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>panss_p4</t>
+          <t>Anti_Corr_Lat_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01143742768063214</v>
+        <v>0.01228385263526044</v>
       </c>
       <c r="C25" t="n">
-        <v>0.009040917751081359</v>
+        <v>0.009326553731467627</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01464538734437472</v>
+        <v>0.01361368606884518</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>panss_p5</t>
+          <t>BACS_Tower_z_within_imputed</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01115523999651705</v>
+        <v>0.01381437660052428</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01367928061252163</v>
+        <v>0.0111090650071027</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0145473748252878</v>
+        <v>0.01358665188919985</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Anti_Corr_Lat_within_Impute_Age_Sex_adjusted</t>
+          <t>madrs_9</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01311473188393735</v>
+        <v>0.01257700453609847</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01430044759287503</v>
+        <v>0.01013020583288649</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01438138574630483</v>
+        <v>0.01336298694401743</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>panss_p3</t>
+          <t>BACS_Sym_Cod_z_within_imputed</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01327416506539901</v>
+        <v>0.01217725304491632</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02635021599352498</v>
+        <v>0.01003995593810809</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01434733299045961</v>
+        <v>0.01335089407177666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Pro_NoGap_within_Impute_Age_Sex_adjusted</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01689946552833671</v>
+        <v>0.01117482206701743</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01363680437247619</v>
+        <v>0.008835024264452814</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01414067096804885</v>
+        <v>0.01324201615482496</v>
       </c>
     </row>
     <row r="30">
@@ -905,733 +905,733 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01638169118558341</v>
+        <v>0.01580108081955648</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01323959381179253</v>
+        <v>0.01534975870775774</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01392312659879385</v>
+        <v>0.01319935620836038</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>young_5</t>
+          <t>BACS_Dig_Seq_z_within_imputed</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01219638973182598</v>
+        <v>0.01647366964805303</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02179179492190916</v>
+        <v>0.01364251972822084</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01381472381538717</v>
+        <v>0.01316500729051672</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>panss_n5</t>
+          <t>young_11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01290331535582554</v>
+        <v>0.01766115126294796</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01303747932015</v>
+        <v>0.01563441294333391</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01375695440195341</v>
+        <v>0.01306624902219477</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>BACS_Tok_Mot_z_within_imputed</t>
+          <t>ConsensusWRAT</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01858538911061705</v>
+        <v>0.01749928889281322</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02284213892443927</v>
+        <v>0.01979044777738954</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01351107909266248</v>
+        <v>0.01299198382295949</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>panss_p7</t>
+          <t>panss_g2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.009314832097830673</v>
+        <v>0.01479154170525278</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01325232270353123</v>
+        <v>0.01141195337495611</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01348938659032991</v>
+        <v>0.01298871382779951</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>sfs_ipcptotal</t>
+          <t>sfs_ictotal</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0127810614926238</v>
+        <v>0.0114384200722837</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01403205187877831</v>
+        <v>0.0126609342239163</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01337822600883636</v>
+        <v>0.01276330862322328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>madrs_6</t>
+          <t>BACS_Verb_Flu_z_within_imputed</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01085577697306483</v>
+        <v>0.01111966160086757</v>
       </c>
       <c r="C36" t="n">
-        <v>0.008874313306122416</v>
+        <v>0.009666845844147898</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01322209832563466</v>
+        <v>0.01271945378402069</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>BACS_Verb_Mem_within_imputed</t>
+          <t>madrs_2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01458291742785197</v>
+        <v>0.01386138660858099</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01290214917267238</v>
+        <v>0.00963272279987702</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0130503628644932</v>
+        <v>0.01269941660867538</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>young_4</t>
+          <t>panss_p5</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007780544800009356</v>
+        <v>0.01040877244221831</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01973494453703266</v>
+        <v>0.009966996157779705</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01278089154751015</v>
+        <v>0.01264062939576807</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pro_Gap_within_Impute_Age_Sex_adjusted</t>
+          <t>BACS_Tok_Mot_z_within_imputed</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01618936475185231</v>
+        <v>0.01130227733042884</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01618679238812038</v>
+        <v>0.00995487165132861</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01252153806283667</v>
+        <v>0.01262989898437381</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>sfs_setotal</t>
+          <t>SSGoDiff_standwithin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01193580073123173</v>
+        <v>0.01312874034083472</v>
       </c>
       <c r="C40" t="n">
-        <v>0.013299923018298</v>
+        <v>0.009663501203467338</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01249346760144979</v>
+        <v>0.01259886794460313</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>panss_g10</t>
+          <t>young_1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.009031426026914157</v>
+        <v>0.01522953665389529</v>
       </c>
       <c r="C41" t="n">
-        <v>0.008817602612553502</v>
+        <v>0.012215943173942</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01242964831939948</v>
+        <v>0.01258338432758279</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>panss_g3</t>
+          <t>panss_g12</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01305731770709929</v>
+        <v>0.02581285199309448</v>
       </c>
       <c r="C42" t="n">
-        <v>0.009367540784323286</v>
+        <v>0.02761759450056155</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01231399849359829</v>
+        <v>0.01252653465368116</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>BACS_Verb_Flu_z_within_imputed</t>
+          <t>panss_p4</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01219479955041286</v>
+        <v>0.01582939201439086</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01160807655926911</v>
+        <v>0.01193327246968477</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01212732358511062</v>
+        <v>0.01246289666322485</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>sfs_prototal</t>
+          <t>SSTProportionError_standwithin</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01336420416371085</v>
+        <v>0.01080895467179374</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01393315547156219</v>
+        <v>0.009449364000796344</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01207597889148119</v>
+        <v>0.01237352666268728</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>panss_n1</t>
+          <t>panss_n2</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02061572685193172</v>
+        <v>0.01059665248636234</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01593206867390758</v>
+        <v>0.008552059129354623</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01184438807980641</v>
+        <v>0.01229275981418635</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>madrs_3</t>
+          <t>young_7</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01473708347609917</v>
+        <v>0.01012334130478345</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01497849301259031</v>
+        <v>0.007336301364794236</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01163886586279679</v>
+        <v>0.01228216178202956</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>sfs_ipcctotal</t>
+          <t>panss_p2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01157543855804335</v>
+        <v>0.01730155105752966</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01025022766033625</v>
+        <v>0.01680250030556952</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01160161542620603</v>
+        <v>0.0122762263591316</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>sfs_oetotal</t>
+          <t>panss_g1</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01878938207535128</v>
+        <v>0.01188726511548887</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01898648059783537</v>
+        <v>0.009093736358447615</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01157956415609589</v>
+        <v>0.01225495304976043</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>young_11</t>
+          <t>panss_g10</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01113198234221127</v>
+        <v>0.01132102600286857</v>
       </c>
       <c r="C49" t="n">
-        <v>0.015327385719292</v>
+        <v>0.01126694384320051</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01123595819367889</v>
+        <v>0.01220345552670237</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>sfs_ictotal</t>
+          <t>sfs_ipcptotal</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01143880398359031</v>
+        <v>0.01125412251243309</v>
       </c>
       <c r="C50" t="n">
-        <v>0.009786696542910504</v>
+        <v>0.01094533780649262</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01112403614991706</v>
+        <v>0.01216882870805471</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>panss_p6</t>
+          <t>madrs_4</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01270937123019075</v>
+        <v>0.01258818592665514</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02098220680184751</v>
+        <v>0.008361990227209454</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01106712014011568</v>
+        <v>0.01216312420170757</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>panss_n3</t>
+          <t>panss_g4</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01058949065874337</v>
+        <v>0.01083381720027474</v>
       </c>
       <c r="C52" t="n">
-        <v>0.008014318950395886</v>
+        <v>0.009891096280517132</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01048993071622459</v>
+        <v>0.0121526102719083</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>young_7</t>
+          <t>sfs_retotal</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0104838513794504</v>
+        <v>0.01123751534335073</v>
       </c>
       <c r="C53" t="n">
-        <v>0.008119338673414666</v>
+        <v>0.01028060387508552</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01028384030848345</v>
+        <v>0.01212501762442392</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>young_1</t>
+          <t>young_5</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01085407477596428</v>
+        <v>0.01420812955673063</v>
       </c>
       <c r="C54" t="n">
-        <v>0.005770600318704152</v>
+        <v>0.01118665177920294</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01022944448290587</v>
+        <v>0.01206353546782663</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>panss_g14</t>
+          <t>panss_g3</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.009184667871961066</v>
+        <v>0.01128315431992398</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01026615905408029</v>
+        <v>0.009539531167176936</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0100140984306098</v>
+        <v>0.01192591257919203</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>panss_g12</t>
+          <t>panss_n4</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01423255421907934</v>
+        <v>0.01147141364533025</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01605594609018647</v>
+        <v>0.008956373435468862</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00999251299418389</v>
+        <v>0.01176067502950119</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>panss_g11</t>
+          <t>madrs_8</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0131610143797112</v>
+        <v>0.01093900392872672</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01020282963278453</v>
+        <v>0.009637157212252424</v>
       </c>
       <c r="D57" t="n">
-        <v>0.009956413466804535</v>
+        <v>0.01167602089262237</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>panss_p2</t>
+          <t>panss_n6</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01111995591512738</v>
+        <v>0.01484350647342696</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01164555507724686</v>
+        <v>0.01177662463006505</v>
       </c>
       <c r="D58" t="n">
-        <v>0.009904140431955163</v>
+        <v>0.01154917890611077</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>young_2</t>
+          <t>madrs_1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01131873529740875</v>
+        <v>0.01087962623704648</v>
       </c>
       <c r="C59" t="n">
-        <v>0.007480718062885085</v>
+        <v>0.01081892785412987</v>
       </c>
       <c r="D59" t="n">
-        <v>0.009427447412785991</v>
+        <v>0.01125372299605647</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>madrs_8</t>
+          <t>panss_g16</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01182334003362499</v>
+        <v>0.009974271417163144</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01581769724570511</v>
+        <v>0.008199280043488695</v>
       </c>
       <c r="D60" t="n">
-        <v>0.009206290711731008</v>
+        <v>0.01108194207367577</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>panss_g6</t>
+          <t>young_2</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01237074461973611</v>
+        <v>0.01201300954335744</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01194178887787121</v>
+        <v>0.01211141454708614</v>
       </c>
       <c r="D61" t="n">
-        <v>0.009184120396678546</v>
+        <v>0.01095303468793764</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>panss_n2</t>
+          <t>panss_g14</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01135253145443733</v>
+        <v>0.01096331871506338</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01362552074336483</v>
+        <v>0.008361757680157001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.009182038039986531</v>
+        <v>0.01076276484125179</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>young_6</t>
+          <t>panss_p7</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.008355242227222172</v>
+        <v>0.01096178146596378</v>
       </c>
       <c r="C63" t="n">
-        <v>0.005020979574801535</v>
+        <v>0.008577918115465325</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009175632326959431</v>
+        <v>0.01064371354165338</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>panss_n7</t>
+          <t>panss_g7</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01146783330511876</v>
+        <v>0.008979460883880335</v>
       </c>
       <c r="C64" t="n">
-        <v>0.008350185837091717</v>
+        <v>0.007420031577238149</v>
       </c>
       <c r="D64" t="n">
-        <v>0.009093511055177356</v>
+        <v>0.01049728330943768</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>madrs_2</t>
+          <t>young_10</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.009614072126069868</v>
+        <v>0.008485062816402376</v>
       </c>
       <c r="C65" t="n">
-        <v>0.008230639031839853</v>
+        <v>0.009191562107066351</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008871327446550302</v>
+        <v>0.01041909230474137</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>madrs_1</t>
+          <t>panss_n3</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.009054131501623808</v>
+        <v>0.009654673644143316</v>
       </c>
       <c r="C66" t="n">
-        <v>0.009202813640542377</v>
+        <v>0.00823243210099295</v>
       </c>
       <c r="D66" t="n">
-        <v>0.008834043022800287</v>
+        <v>0.01040714537169269</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>panss_g4</t>
+          <t>young_4</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.009716338028379139</v>
+        <v>0.01013222520997499</v>
       </c>
       <c r="C67" t="n">
-        <v>0.008288908096950143</v>
+        <v>0.007891593425289785</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00877272751522176</v>
+        <v>0.01034938543530408</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>panss_g15</t>
+          <t>panss_g11</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.007989475801642934</v>
+        <v>0.008740825909697559</v>
       </c>
       <c r="C68" t="n">
-        <v>0.008462307425715812</v>
+        <v>0.006614822548313475</v>
       </c>
       <c r="D68" t="n">
-        <v>0.008567832356985739</v>
+        <v>0.01029323025729487</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>young_8</t>
+          <t>madrs_10</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.00766388806116578</v>
+        <v>0.008333270513192088</v>
       </c>
       <c r="C69" t="n">
-        <v>0.005846689365463053</v>
+        <v>0.005218159280710476</v>
       </c>
       <c r="D69" t="n">
-        <v>0.008424333758494424</v>
+        <v>0.01019305365193685</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>panss_g16</t>
+          <t>panss_g13</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01176571096449483</v>
+        <v>0.009070047276957371</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01607083189805463</v>
+        <v>0.007746357274830436</v>
       </c>
       <c r="D70" t="n">
-        <v>0.008279690496838828</v>
+        <v>0.01014213507515974</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>young_9</t>
+          <t>panss_n7</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.008768611710959964</v>
+        <v>0.009474137495464495</v>
       </c>
       <c r="C71" t="n">
-        <v>0.005822783985364509</v>
+        <v>0.00704745242751888</v>
       </c>
       <c r="D71" t="n">
-        <v>0.008120026889106062</v>
+        <v>0.01001919368601233</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>madrs_5</t>
+          <t>panss_g15</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.007517378057142868</v>
+        <v>0.009046838721342952</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01247435929114808</v>
+        <v>0.006528688045397549</v>
       </c>
       <c r="D72" t="n">
-        <v>0.007793870488889469</v>
+        <v>0.009795497218142176</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>madrs_10</t>
+          <t>young_9</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.007049378680027815</v>
+        <v>0.008799784050359022</v>
       </c>
       <c r="C73" t="n">
-        <v>0.005582856481210858</v>
+        <v>0.007997568983494454</v>
       </c>
       <c r="D73" t="n">
-        <v>0.007734773622931232</v>
+        <v>0.009515947786928209</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>young_3</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.009564098975106697</v>
+        <v>0.007670293253727158</v>
       </c>
       <c r="C74" t="n">
-        <v>0.008140727094769883</v>
+        <v>0.005885380405928976</v>
       </c>
       <c r="D74" t="n">
-        <v>0.007498108725808517</v>
+        <v>0.009494257707013199</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>young_10</t>
+          <t>madrs_5</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.008741188277387598</v>
+        <v>0.009613926252220918</v>
       </c>
       <c r="C75" t="n">
-        <v>0.006690295287052645</v>
+        <v>0.006870695654637223</v>
       </c>
       <c r="D75" t="n">
-        <v>0.007430598729758521</v>
+        <v>0.009205965512052636</v>
       </c>
     </row>
     <row r="76">
@@ -1641,45 +1641,45 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.008488756419688286</v>
+        <v>0.00807066526691037</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01619472542239478</v>
+        <v>0.006172743869159882</v>
       </c>
       <c r="D76" t="n">
-        <v>0.006008019121387712</v>
+        <v>0.009096732686896453</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>panss_g8</t>
+          <t>young_6</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.007950742669688047</v>
+        <v>0.008354669422466002</v>
       </c>
       <c r="C77" t="n">
-        <v>0.009240052256364626</v>
+        <v>0.007999647417797117</v>
       </c>
       <c r="D77" t="n">
-        <v>0.005416396990482763</v>
+        <v>0.00891454758275617</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>young_3</t>
+          <t>panss_g8</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.004965872457879411</v>
+        <v>0.007636984635678145</v>
       </c>
       <c r="C78" t="n">
-        <v>0.003675212976931963</v>
+        <v>0.00558261498734873</v>
       </c>
       <c r="D78" t="n">
-        <v>0.005229549207381373</v>
+        <v>0.00792928593351489</v>
       </c>
     </row>
     <row r="79">
@@ -1695,22 +1695,6 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>BSNIP1vs2</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
